--- a/dataanalysis/data/predictions/1200/07171244_1758.xlsx
+++ b/dataanalysis/data/predictions/1200/07171244_1758.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="130">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-17</t>
   </si>
   <si>
@@ -401,12 +404,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -764,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,19 +849,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-1.2</v>
@@ -882,7 +882,7 @@
         <v>83947.60000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -902,8 +902,23 @@
       <c r="P2">
         <v>-0.57</v>
       </c>
+      <c r="Q2">
+        <v>1.61</v>
+      </c>
+      <c r="R2">
+        <v>5.12</v>
+      </c>
+      <c r="S2">
+        <v>3.85</v>
+      </c>
       <c r="V2" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -911,22 +926,25 @@
       <c r="Z2">
         <v>6.085733413696289</v>
       </c>
-      <c r="AA2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-1.6</v>
@@ -944,7 +962,7 @@
         <v>47804.75</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -964,8 +982,23 @@
       <c r="P3">
         <v>-0.66</v>
       </c>
+      <c r="Q3">
+        <v>-0.98</v>
+      </c>
+      <c r="R3">
+        <v>22.86</v>
+      </c>
+      <c r="S3">
+        <v>3.16</v>
+      </c>
       <c r="V3" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -973,22 +1006,25 @@
       <c r="Z3">
         <v>0.1699638664722443</v>
       </c>
-      <c r="AA3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-0.2</v>
@@ -1006,7 +1042,7 @@
         <v>71469.56</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1026,8 +1062,23 @@
       <c r="P4">
         <v>-0.38</v>
       </c>
+      <c r="Q4">
+        <v>1.45</v>
+      </c>
+      <c r="R4">
+        <v>43.62</v>
+      </c>
+      <c r="S4">
+        <v>6.55</v>
+      </c>
       <c r="V4" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1035,22 +1086,25 @@
       <c r="Z4">
         <v>8.57838249206543</v>
       </c>
-      <c r="AA4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>7.06</v>
@@ -1068,7 +1122,7 @@
         <v>125669.31</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1088,8 +1142,23 @@
       <c r="P5">
         <v>1.03</v>
       </c>
+      <c r="Q5">
+        <v>3.33</v>
+      </c>
+      <c r="R5">
+        <v>6.84</v>
+      </c>
+      <c r="S5">
+        <v>7.38</v>
+      </c>
       <c r="V5" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -1097,22 +1166,25 @@
       <c r="Z5">
         <v>11.99979114532471</v>
       </c>
-      <c r="AA5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300130</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0.77</v>
@@ -1130,7 +1202,7 @@
         <v>85328.75999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6">
         <v>23</v>
@@ -1150,8 +1222,23 @@
       <c r="P6">
         <v>-0.09</v>
       </c>
+      <c r="Q6">
+        <v>0.21</v>
+      </c>
+      <c r="R6">
+        <v>33.49</v>
+      </c>
+      <c r="S6">
+        <v>2.76</v>
+      </c>
       <c r="V6" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1159,22 +1246,25 @@
       <c r="Z6">
         <v>5.244165897369385</v>
       </c>
-      <c r="AA6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300180</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1.4</v>
@@ -1192,7 +1282,7 @@
         <v>80817.64</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7">
         <v>22</v>
@@ -1212,8 +1302,23 @@
       <c r="P7">
         <v>-0.36</v>
       </c>
+      <c r="Q7">
+        <v>-2.45</v>
+      </c>
+      <c r="R7">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.21</v>
+      </c>
       <c r="V7" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1221,22 +1326,25 @@
       <c r="Z7">
         <v>3.908401727676392</v>
       </c>
-      <c r="AA7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300195</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-5.27</v>
@@ -1254,7 +1362,7 @@
         <v>43878.12</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1274,8 +1382,23 @@
       <c r="P8">
         <v>-1.26</v>
       </c>
+      <c r="Q8">
+        <v>-3.2</v>
+      </c>
+      <c r="R8">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="S8">
+        <v>-0.95</v>
+      </c>
       <c r="V8" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1283,22 +1406,25 @@
       <c r="Z8">
         <v>2.453024625778198</v>
       </c>
-      <c r="AA8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300199</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-0.67</v>
@@ -1316,7 +1442,7 @@
         <v>134963.48</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K9">
         <v>12</v>
@@ -1336,8 +1462,23 @@
       <c r="P9">
         <v>-0.78</v>
       </c>
+      <c r="Q9">
+        <v>-1.73</v>
+      </c>
+      <c r="R9">
+        <v>19.6</v>
+      </c>
+      <c r="S9">
+        <v>1.55</v>
+      </c>
       <c r="V9" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1345,22 +1486,25 @@
       <c r="Z9">
         <v>1.543684482574463</v>
       </c>
-      <c r="AA9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300226</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>3.18</v>
@@ -1378,7 +1522,7 @@
         <v>142459.26</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1398,8 +1542,23 @@
       <c r="P10">
         <v>1.11</v>
       </c>
+      <c r="Q10">
+        <v>-4.54</v>
+      </c>
+      <c r="R10">
+        <v>30.3</v>
+      </c>
+      <c r="S10">
+        <v>-0.66</v>
+      </c>
       <c r="V10" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1407,22 +1566,25 @@
       <c r="Z10">
         <v>2.440618991851807</v>
       </c>
-      <c r="AA10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300348</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-0.67</v>
@@ -1440,7 +1602,7 @@
         <v>122419.39</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1460,8 +1622,23 @@
       <c r="P11">
         <v>-0.86</v>
       </c>
+      <c r="Q11">
+        <v>-0.05</v>
+      </c>
+      <c r="R11">
+        <v>19.8</v>
+      </c>
+      <c r="S11">
+        <v>2.33</v>
+      </c>
       <c r="V11" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1469,22 +1646,25 @@
       <c r="Z11">
         <v>1.692498564720154</v>
       </c>
-      <c r="AA11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300410</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>-1.01</v>
@@ -1502,7 +1682,7 @@
         <v>14994.09</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -1522,8 +1702,23 @@
       <c r="P12">
         <v>-0.19</v>
       </c>
+      <c r="Q12">
+        <v>-4.82</v>
+      </c>
+      <c r="R12">
+        <v>7.98</v>
+      </c>
+      <c r="S12">
+        <v>1.4</v>
+      </c>
       <c r="V12" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1531,22 +1726,25 @@
       <c r="Z12">
         <v>4.231344699859619</v>
       </c>
-      <c r="AA12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300414</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>-1.14</v>
@@ -1564,7 +1762,7 @@
         <v>26064</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1584,8 +1782,23 @@
       <c r="P13">
         <v>-0.18</v>
       </c>
+      <c r="Q13">
+        <v>1.06</v>
+      </c>
+      <c r="R13">
+        <v>13.57</v>
+      </c>
+      <c r="S13">
+        <v>4.63</v>
+      </c>
       <c r="V13" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1593,22 +1806,25 @@
       <c r="Z13">
         <v>3.91145396232605</v>
       </c>
-      <c r="AA13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300436</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-6.37</v>
@@ -1626,7 +1842,7 @@
         <v>117209.54</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14">
         <v>11</v>
@@ -1646,8 +1862,23 @@
       <c r="P14">
         <v>-0.08</v>
       </c>
+      <c r="Q14">
+        <v>-1.91</v>
+      </c>
+      <c r="R14">
+        <v>71.2</v>
+      </c>
+      <c r="S14">
+        <v>1.57</v>
+      </c>
       <c r="V14" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1655,22 +1886,25 @@
       <c r="Z14">
         <v>5.909451007843018</v>
       </c>
-      <c r="AA14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300469</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>1.88</v>
@@ -1688,7 +1922,7 @@
         <v>64755.03</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1708,8 +1942,23 @@
       <c r="P15">
         <v>0.27</v>
       </c>
+      <c r="Q15">
+        <v>-0.8</v>
+      </c>
+      <c r="R15">
+        <v>47.39</v>
+      </c>
+      <c r="S15">
+        <v>2.75</v>
+      </c>
       <c r="V15" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1717,22 +1966,25 @@
       <c r="Z15">
         <v>0.8427674174308777</v>
       </c>
-      <c r="AA15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300502</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>6.4</v>
@@ -1750,7 +2002,7 @@
         <v>864827.6</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16">
         <v>17</v>
@@ -1770,8 +2022,23 @@
       <c r="P16">
         <v>0.26</v>
       </c>
+      <c r="Q16">
+        <v>-0.64</v>
+      </c>
+      <c r="R16">
+        <v>191</v>
+      </c>
+      <c r="S16">
+        <v>5.72</v>
+      </c>
       <c r="V16" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1779,22 +2046,25 @@
       <c r="Z16">
         <v>3.677773952484131</v>
       </c>
-      <c r="AA16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300522</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>3.45</v>
@@ -1812,7 +2082,7 @@
         <v>52376.44</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1832,8 +2102,23 @@
       <c r="P17">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Q17">
+        <v>-0.89</v>
+      </c>
+      <c r="R17">
+        <v>17.57</v>
+      </c>
+      <c r="S17">
+        <v>4.65</v>
+      </c>
       <c r="V17" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -1841,22 +2126,25 @@
       <c r="Z17">
         <v>8.810118675231934</v>
       </c>
-      <c r="AA17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300527</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-2.47</v>
@@ -1874,7 +2162,7 @@
         <v>53181.57</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>13</v>
@@ -1894,8 +2182,23 @@
       <c r="P18">
         <v>-0.46</v>
       </c>
+      <c r="Q18">
+        <v>-0.98</v>
+      </c>
+      <c r="R18">
+        <v>11.37</v>
+      </c>
+      <c r="S18">
+        <v>2.8</v>
+      </c>
       <c r="V18" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1903,22 +2206,25 @@
       <c r="Z18">
         <v>2.962974548339844</v>
       </c>
-      <c r="AA18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300533</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>-0.8</v>
@@ -1936,7 +2242,7 @@
         <v>64026.47</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19">
         <v>17</v>
@@ -1956,8 +2262,23 @@
       <c r="P19">
         <v>-0.18</v>
       </c>
+      <c r="Q19">
+        <v>-4.42</v>
+      </c>
+      <c r="R19">
+        <v>38.01</v>
+      </c>
+      <c r="S19">
+        <v>1.69</v>
+      </c>
       <c r="V19" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1965,22 +2286,25 @@
       <c r="Z19">
         <v>1.677053570747375</v>
       </c>
-      <c r="AA19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300537</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>4.27</v>
@@ -1998,7 +2322,7 @@
         <v>35934.29</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20">
         <v>14</v>
@@ -2018,8 +2342,23 @@
       <c r="P20">
         <v>0.65</v>
       </c>
+      <c r="Q20">
+        <v>-1.17</v>
+      </c>
+      <c r="R20">
+        <v>25.89</v>
+      </c>
+      <c r="S20">
+        <v>1.01</v>
+      </c>
       <c r="V20" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2027,22 +2366,25 @@
       <c r="Z20">
         <v>1.963117718696594</v>
       </c>
-      <c r="AA20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300541</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-1</v>
@@ -2060,7 +2402,7 @@
         <v>51752.66</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2080,8 +2422,23 @@
       <c r="P21">
         <v>-0.93</v>
       </c>
+      <c r="Q21">
+        <v>-3.36</v>
+      </c>
+      <c r="R21">
+        <v>16.68</v>
+      </c>
+      <c r="S21">
+        <v>-0.66</v>
+      </c>
       <c r="V21" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2089,22 +2446,25 @@
       <c r="Z21">
         <v>0.4745554327964783</v>
       </c>
-      <c r="AA21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300548</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0.17</v>
@@ -2122,7 +2482,7 @@
         <v>206469.7</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2142,8 +2502,23 @@
       <c r="P22">
         <v>0.08</v>
       </c>
+      <c r="Q22">
+        <v>0.26</v>
+      </c>
+      <c r="R22">
+        <v>90.69</v>
+      </c>
+      <c r="S22">
+        <v>7.25</v>
+      </c>
       <c r="V22" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2151,22 +2526,25 @@
       <c r="Z22">
         <v>2.451946258544922</v>
       </c>
-      <c r="AA22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300551</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>-0.58</v>
@@ -2184,7 +2562,7 @@
         <v>28737.45</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2204,8 +2582,23 @@
       <c r="P23">
         <v>-0.27</v>
       </c>
+      <c r="Q23">
+        <v>-1.68</v>
+      </c>
+      <c r="R23">
+        <v>12</v>
+      </c>
+      <c r="S23">
+        <v>0.25</v>
+      </c>
       <c r="V23" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2213,22 +2606,25 @@
       <c r="Z23">
         <v>3.090210199356079</v>
       </c>
-      <c r="AA23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300581</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>2.05</v>
@@ -2246,7 +2642,7 @@
         <v>56188.99</v>
       </c>
       <c r="J24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2266,8 +2662,23 @@
       <c r="P24">
         <v>0.27</v>
       </c>
+      <c r="Q24">
+        <v>0.83</v>
+      </c>
+      <c r="R24">
+        <v>21.39</v>
+      </c>
+      <c r="S24">
+        <v>12.82</v>
+      </c>
       <c r="V24" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2275,22 +2686,25 @@
       <c r="Z24">
         <v>2.79422402381897</v>
       </c>
-      <c r="AA24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300591</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>2.59</v>
@@ -2308,7 +2722,7 @@
         <v>101991.36</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K25">
         <v>18</v>
@@ -2328,8 +2742,23 @@
       <c r="P25">
         <v>0.51</v>
       </c>
+      <c r="Q25">
+        <v>-2.48</v>
+      </c>
+      <c r="R25">
+        <v>12.85</v>
+      </c>
+      <c r="S25">
+        <v>4.81</v>
+      </c>
       <c r="V25" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2337,22 +2766,25 @@
       <c r="Z25">
         <v>4.670051097869873</v>
       </c>
-      <c r="AA25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300600</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-1.36</v>
@@ -2370,7 +2802,7 @@
         <v>41882.08</v>
       </c>
       <c r="J26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K26">
         <v>15</v>
@@ -2390,8 +2822,23 @@
       <c r="P26">
         <v>0.01</v>
       </c>
+      <c r="Q26">
+        <v>-4.16</v>
+      </c>
+      <c r="R26">
+        <v>16.71</v>
+      </c>
+      <c r="S26">
+        <v>4.76</v>
+      </c>
       <c r="V26" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2399,22 +2846,25 @@
       <c r="Z26">
         <v>2.451612234115601</v>
       </c>
-      <c r="AA26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300631</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>-0.75</v>
@@ -2432,7 +2882,7 @@
         <v>29999.72</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -2452,8 +2902,23 @@
       <c r="P27">
         <v>-0.19</v>
       </c>
+      <c r="Q27">
+        <v>20.01</v>
+      </c>
+      <c r="R27">
+        <v>33.65</v>
+      </c>
+      <c r="S27">
+        <v>21.09</v>
+      </c>
       <c r="V27" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2461,22 +2926,25 @@
       <c r="Z27">
         <v>4.242486476898193</v>
       </c>
-      <c r="AA27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300644</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>20.01</v>
@@ -2494,7 +2962,7 @@
         <v>79781.66</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2514,8 +2982,23 @@
       <c r="P28">
         <v>0.8</v>
       </c>
+      <c r="Q28">
+        <v>0.78</v>
+      </c>
+      <c r="R28">
+        <v>36.34</v>
+      </c>
+      <c r="S28">
+        <v>8.19</v>
+      </c>
       <c r="V28" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>1</v>
@@ -2523,22 +3006,25 @@
       <c r="Z28">
         <v>16.1556510925293</v>
       </c>
-      <c r="AA28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300703</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-2.21</v>
@@ -2556,7 +3042,7 @@
         <v>31256.35</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -2576,8 +3062,23 @@
       <c r="P29">
         <v>-0.68</v>
       </c>
+      <c r="Q29">
+        <v>-1.89</v>
+      </c>
+      <c r="R29">
+        <v>26.1</v>
+      </c>
+      <c r="S29">
+        <v>1.91</v>
+      </c>
       <c r="V29" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2585,22 +3086,25 @@
       <c r="Z29">
         <v>2.131770372390747</v>
       </c>
-      <c r="AA29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300748</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-2.97</v>
@@ -2618,7 +3122,7 @@
         <v>105301.5</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -2638,8 +3142,23 @@
       <c r="P30">
         <v>-0.39</v>
       </c>
+      <c r="Q30">
+        <v>3.97</v>
+      </c>
+      <c r="R30">
+        <v>27.66</v>
+      </c>
+      <c r="S30">
+        <v>8.73</v>
+      </c>
       <c r="V30" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2647,22 +3166,25 @@
       <c r="Z30">
         <v>7.581537246704102</v>
       </c>
-      <c r="AA30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300803</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>3.16</v>
@@ -2680,7 +3202,7 @@
         <v>276597.91</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K31">
         <v>15</v>
@@ -2700,8 +3222,23 @@
       <c r="P31">
         <v>0.42</v>
       </c>
+      <c r="Q31">
+        <v>-1.13</v>
+      </c>
+      <c r="R31">
+        <v>88.5</v>
+      </c>
+      <c r="S31">
+        <v>1.53</v>
+      </c>
       <c r="V31" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>1</v>
@@ -2709,22 +3246,25 @@
       <c r="Z31">
         <v>8.920234680175781</v>
       </c>
-      <c r="AA31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300839</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>-2.53</v>
@@ -2742,7 +3282,7 @@
         <v>44870.69</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2762,8 +3302,23 @@
       <c r="P32">
         <v>0.34</v>
       </c>
+      <c r="Q32">
+        <v>-2.93</v>
+      </c>
+      <c r="R32">
+        <v>14.8</v>
+      </c>
+      <c r="S32">
+        <v>1.23</v>
+      </c>
       <c r="V32" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2771,22 +3326,25 @@
       <c r="Z32">
         <v>2.981004476547241</v>
       </c>
-      <c r="AA32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300847</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-0.87</v>
@@ -2804,7 +3362,7 @@
         <v>14481.28</v>
       </c>
       <c r="J33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K33">
         <v>9</v>
@@ -2824,8 +3382,23 @@
       <c r="P33">
         <v>-0.27</v>
       </c>
+      <c r="Q33">
+        <v>0.15</v>
+      </c>
+      <c r="R33">
+        <v>19.84</v>
+      </c>
+      <c r="S33">
+        <v>2.16</v>
+      </c>
       <c r="V33" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2833,22 +3406,25 @@
       <c r="Z33">
         <v>4.300387859344482</v>
       </c>
-      <c r="AA33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>300872</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-0.16</v>
@@ -2866,7 +3442,7 @@
         <v>93158.10000000001</v>
       </c>
       <c r="J34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K34">
         <v>24</v>
@@ -2886,8 +3462,23 @@
       <c r="P34">
         <v>-0.79</v>
       </c>
+      <c r="Q34">
+        <v>-2.11</v>
+      </c>
+      <c r="R34">
+        <v>24.86</v>
+      </c>
+      <c r="S34">
+        <v>-1.43</v>
+      </c>
       <c r="V34" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>1</v>
@@ -2895,22 +3486,25 @@
       <c r="Z34">
         <v>7.408288955688477</v>
       </c>
-      <c r="AA34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>300950</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>-2.88</v>
@@ -2928,7 +3522,7 @@
         <v>87800.25999999999</v>
       </c>
       <c r="J35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2948,8 +3542,23 @@
       <c r="P35">
         <v>-3.42</v>
       </c>
+      <c r="Q35">
+        <v>-0.44</v>
+      </c>
+      <c r="R35">
+        <v>34.96</v>
+      </c>
+      <c r="S35">
+        <v>1.69</v>
+      </c>
       <c r="V35" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2957,22 +3566,25 @@
       <c r="Z35">
         <v>1.664579153060913</v>
       </c>
-      <c r="AA35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>301012</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>10.16</v>
@@ -2990,7 +3602,7 @@
         <v>110596.56</v>
       </c>
       <c r="J36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3010,8 +3622,23 @@
       <c r="P36">
         <v>-4.61</v>
       </c>
+      <c r="Q36">
+        <v>-7.76</v>
+      </c>
+      <c r="R36">
+        <v>25.02</v>
+      </c>
+      <c r="S36">
+        <v>-1.84</v>
+      </c>
       <c r="V36" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3019,22 +3646,25 @@
       <c r="Z36">
         <v>4.463711261749268</v>
       </c>
-      <c r="AA36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>301120</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-0.4</v>
@@ -3052,7 +3682,7 @@
         <v>15174.17</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37">
         <v>7</v>
@@ -3072,8 +3702,23 @@
       <c r="P37">
         <v>-0.22</v>
       </c>
+      <c r="Q37">
+        <v>-1.11</v>
+      </c>
+      <c r="R37">
+        <v>12.6</v>
+      </c>
+      <c r="S37">
+        <v>0.08</v>
+      </c>
       <c r="V37" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3081,22 +3726,25 @@
       <c r="Z37">
         <v>6.13621711730957</v>
       </c>
-      <c r="AA37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>301132</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>20.01</v>
@@ -3114,7 +3762,7 @@
         <v>75486.36</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3134,8 +3782,23 @@
       <c r="P38">
         <v>9.029999999999999</v>
       </c>
+      <c r="Q38">
+        <v>-1.65</v>
+      </c>
+      <c r="R38">
+        <v>44.41</v>
+      </c>
+      <c r="S38">
+        <v>11.36</v>
+      </c>
       <c r="V38" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -3143,22 +3806,25 @@
       <c r="Z38">
         <v>18.69281768798828</v>
       </c>
-      <c r="AA38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>301141</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-0.65</v>
@@ -3176,7 +3842,7 @@
         <v>43607.7</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K39">
         <v>15</v>
@@ -3196,8 +3862,23 @@
       <c r="P39">
         <v>-0.31</v>
       </c>
+      <c r="Q39">
+        <v>1.93</v>
+      </c>
+      <c r="R39">
+        <v>77.7</v>
+      </c>
+      <c r="S39">
+        <v>10.86</v>
+      </c>
       <c r="V39" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3205,22 +3886,25 @@
       <c r="Z39">
         <v>2.034699678421021</v>
       </c>
-      <c r="AA39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>301165</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>1.79</v>
@@ -3238,7 +3922,7 @@
         <v>67892.00999999999</v>
       </c>
       <c r="J40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -3258,8 +3942,23 @@
       <c r="P40">
         <v>0.28</v>
       </c>
+      <c r="Q40">
+        <v>-1.31</v>
+      </c>
+      <c r="R40">
+        <v>65.5</v>
+      </c>
+      <c r="S40">
+        <v>1.79</v>
+      </c>
       <c r="V40" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3267,22 +3966,25 @@
       <c r="Z40">
         <v>4.044411659240723</v>
       </c>
-      <c r="AA40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301176</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>7.97</v>
@@ -3300,7 +4002,7 @@
         <v>54723.18</v>
       </c>
       <c r="J41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K41">
         <v>20</v>
@@ -3320,8 +4022,23 @@
       <c r="P41">
         <v>1.74</v>
       </c>
+      <c r="Q41">
+        <v>-4.75</v>
+      </c>
+      <c r="R41">
+        <v>35.8</v>
+      </c>
+      <c r="S41">
+        <v>0.14</v>
+      </c>
       <c r="V41" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>1</v>
@@ -3329,22 +4046,25 @@
       <c r="Z41">
         <v>7.612545013427734</v>
       </c>
-      <c r="AA41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301183</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>2.06</v>
@@ -3362,7 +4082,7 @@
         <v>101548.86</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -3382,8 +4102,23 @@
       <c r="P42">
         <v>-0.7</v>
       </c>
+      <c r="Q42">
+        <v>-2.58</v>
+      </c>
+      <c r="R42">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="S42">
+        <v>0.52</v>
+      </c>
       <c r="V42" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3391,22 +4126,25 @@
       <c r="Z42">
         <v>4.280263423919678</v>
       </c>
-      <c r="AA42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301217</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>6.36</v>
@@ -3424,7 +4162,7 @@
         <v>105873.36</v>
       </c>
       <c r="J43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K43">
         <v>9</v>
@@ -3444,8 +4182,23 @@
       <c r="P43">
         <v>0.83</v>
       </c>
+      <c r="Q43">
+        <v>3.16</v>
+      </c>
+      <c r="R43">
+        <v>23.25</v>
+      </c>
+      <c r="S43">
+        <v>18.8</v>
+      </c>
       <c r="V43" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -3453,22 +4206,25 @@
       <c r="Z43">
         <v>13.45250225067139</v>
       </c>
-      <c r="AA43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301312</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>1.45</v>
@@ -3486,7 +4242,7 @@
         <v>24886.25</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3506,8 +4262,23 @@
       <c r="P44">
         <v>0.08</v>
       </c>
+      <c r="Q44">
+        <v>-1.1</v>
+      </c>
+      <c r="R44">
+        <v>43.68</v>
+      </c>
+      <c r="S44">
+        <v>-2.15</v>
+      </c>
       <c r="V44" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>1</v>
@@ -3515,22 +4286,25 @@
       <c r="Z44">
         <v>9.930889129638672</v>
       </c>
-      <c r="AA44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301345</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-7.04</v>
@@ -3548,7 +4322,7 @@
         <v>56831.51</v>
       </c>
       <c r="J45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K45">
         <v>13</v>
@@ -3568,8 +4342,23 @@
       <c r="P45">
         <v>-1.63</v>
       </c>
+      <c r="Q45">
+        <v>-2.04</v>
+      </c>
+      <c r="R45">
+        <v>141.5</v>
+      </c>
+      <c r="S45">
+        <v>3.34</v>
+      </c>
       <c r="V45" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -3577,22 +4366,25 @@
       <c r="Z45">
         <v>4.828700065612793</v>
       </c>
-      <c r="AA45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301357</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>4.1</v>
@@ -3610,7 +4402,7 @@
         <v>65940.67999999999</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -3630,8 +4422,23 @@
       <c r="P46">
         <v>-0.72</v>
       </c>
+      <c r="Q46">
+        <v>-2.18</v>
+      </c>
+      <c r="R46">
+        <v>87.8</v>
+      </c>
+      <c r="S46">
+        <v>4.49</v>
+      </c>
       <c r="V46" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3639,22 +4446,25 @@
       <c r="Z46">
         <v>0.3223825395107269</v>
       </c>
-      <c r="AA46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301377</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>5.71</v>
@@ -3672,7 +4482,7 @@
         <v>46191.85</v>
       </c>
       <c r="J47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -3692,8 +4502,23 @@
       <c r="P47">
         <v>0.52</v>
       </c>
+      <c r="Q47">
+        <v>2.51</v>
+      </c>
+      <c r="R47">
+        <v>47.47</v>
+      </c>
+      <c r="S47">
+        <v>11.93</v>
+      </c>
       <c r="V47" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>1</v>
@@ -3701,22 +4526,25 @@
       <c r="Z47">
         <v>6.755099773406982</v>
       </c>
-      <c r="AA47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301388</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>0.86</v>
@@ -3734,7 +4562,7 @@
         <v>42772.84</v>
       </c>
       <c r="J48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K48">
         <v>9</v>
@@ -3754,8 +4582,23 @@
       <c r="P48">
         <v>-1.04</v>
       </c>
+      <c r="Q48">
+        <v>4.99</v>
+      </c>
+      <c r="R48">
+        <v>40.43</v>
+      </c>
+      <c r="S48">
+        <v>4.99</v>
+      </c>
       <c r="V48" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -3763,22 +4606,25 @@
       <c r="Z48">
         <v>5.608309268951416</v>
       </c>
-      <c r="AA48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>301389</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>2.08</v>
@@ -3796,7 +4642,7 @@
         <v>47853.4</v>
       </c>
       <c r="J49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K49">
         <v>8</v>
@@ -3816,8 +4662,23 @@
       <c r="P49">
         <v>0.68</v>
       </c>
+      <c r="Q49">
+        <v>0.27</v>
+      </c>
+      <c r="R49">
+        <v>35</v>
+      </c>
+      <c r="S49">
+        <v>6.54</v>
+      </c>
       <c r="V49" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3825,22 +4686,25 @@
       <c r="Z49">
         <v>1.415833950042725</v>
       </c>
-      <c r="AA49" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>301511</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>4.8</v>
@@ -3858,7 +4722,7 @@
         <v>39452.12</v>
       </c>
       <c r="J50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K50">
         <v>18</v>
@@ -3878,8 +4742,23 @@
       <c r="P50">
         <v>0.41</v>
       </c>
+      <c r="Q50">
+        <v>-3.49</v>
+      </c>
+      <c r="R50">
+        <v>27.5</v>
+      </c>
+      <c r="S50">
+        <v>6.75</v>
+      </c>
       <c r="V50" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3887,22 +4766,25 @@
       <c r="Z50">
         <v>4.444777488708496</v>
       </c>
-      <c r="AA50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>301526</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>3.1</v>
@@ -3920,7 +4802,7 @@
         <v>66488.33</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K51">
         <v>8</v>
@@ -3940,8 +4822,23 @@
       <c r="P51">
         <v>0.39</v>
       </c>
+      <c r="Q51">
+        <v>-1</v>
+      </c>
+      <c r="R51">
+        <v>5.15</v>
+      </c>
+      <c r="S51">
+        <v>3.21</v>
+      </c>
       <c r="V51" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3949,22 +4846,25 @@
       <c r="Z51">
         <v>3.245171308517456</v>
       </c>
-      <c r="AA51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>688062</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>10.54</v>
@@ -3982,7 +4882,7 @@
         <v>69412.28</v>
       </c>
       <c r="J52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K52">
         <v>11</v>
@@ -4002,8 +4902,23 @@
       <c r="P52">
         <v>0.61</v>
       </c>
+      <c r="Q52">
+        <v>-2.76</v>
+      </c>
+      <c r="R52">
+        <v>37.5</v>
+      </c>
+      <c r="S52">
+        <v>9.039999999999999</v>
+      </c>
       <c r="V52" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>1</v>
@@ -4011,22 +4926,25 @@
       <c r="Z52">
         <v>8.944925308227539</v>
       </c>
-      <c r="AA52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>688117</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>-1.32</v>
@@ -4044,7 +4962,7 @@
         <v>29795.36</v>
       </c>
       <c r="J53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -4064,8 +4982,23 @@
       <c r="P53">
         <v>-0.67</v>
       </c>
+      <c r="Q53">
+        <v>7.76</v>
+      </c>
+      <c r="R53">
+        <v>43.19</v>
+      </c>
+      <c r="S53">
+        <v>10.94</v>
+      </c>
       <c r="V53" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4073,22 +5006,25 @@
       <c r="Z53">
         <v>2.799049615859985</v>
       </c>
-      <c r="AA53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>688176</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>5.6</v>
@@ -4106,7 +5042,7 @@
         <v>28628.75</v>
       </c>
       <c r="J54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -4126,8 +5062,23 @@
       <c r="P54">
         <v>0.72</v>
       </c>
+      <c r="Q54">
+        <v>-2.1</v>
+      </c>
+      <c r="R54">
+        <v>11.86</v>
+      </c>
+      <c r="S54">
+        <v>1.37</v>
+      </c>
       <c r="V54" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -4135,22 +5086,25 @@
       <c r="Z54">
         <v>1.430083513259888</v>
       </c>
-      <c r="AA54" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>688202</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>1.7</v>
@@ -4168,7 +5122,7 @@
         <v>31205.32</v>
       </c>
       <c r="J55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K55">
         <v>8</v>
@@ -4188,8 +5142,23 @@
       <c r="P55">
         <v>0.44</v>
       </c>
+      <c r="Q55">
+        <v>1.8</v>
+      </c>
+      <c r="R55">
+        <v>62.79</v>
+      </c>
+      <c r="S55">
+        <v>25.08</v>
+      </c>
       <c r="V55" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4197,22 +5166,25 @@
       <c r="Z55">
         <v>5.20400857925415</v>
       </c>
-      <c r="AA55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>688221</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>0.52</v>
@@ -4230,7 +5202,7 @@
         <v>38351.4</v>
       </c>
       <c r="J56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K56">
         <v>9</v>
@@ -4250,8 +5222,23 @@
       <c r="P56">
         <v>0.02</v>
       </c>
+      <c r="Q56">
+        <v>4.34</v>
+      </c>
+      <c r="R56">
+        <v>21.79</v>
+      </c>
+      <c r="S56">
+        <v>12.09</v>
+      </c>
       <c r="V56" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4259,22 +5246,25 @@
       <c r="Z56">
         <v>2.583699941635132</v>
       </c>
-      <c r="AA56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>688313</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>8.19</v>
@@ -4292,7 +5282,7 @@
         <v>167946.84</v>
       </c>
       <c r="J57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K57">
         <v>22</v>
@@ -4312,8 +5302,23 @@
       <c r="P57">
         <v>0</v>
       </c>
+      <c r="Q57">
+        <v>2.43</v>
+      </c>
+      <c r="R57">
+        <v>55.55</v>
+      </c>
+      <c r="S57">
+        <v>9.220000000000001</v>
+      </c>
       <c r="V57" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4321,22 +5326,25 @@
       <c r="Z57">
         <v>4.563253402709961</v>
       </c>
-      <c r="AA57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>688317</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4354,7 +5362,7 @@
         <v>23906.1</v>
       </c>
       <c r="J58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -4374,8 +5382,23 @@
       <c r="P58">
         <v>0.09</v>
       </c>
+      <c r="Q58">
+        <v>-7.07</v>
+      </c>
+      <c r="R58">
+        <v>24.35</v>
+      </c>
+      <c r="S58">
+        <v>2.96</v>
+      </c>
       <c r="V58" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4383,22 +5406,25 @@
       <c r="Z58">
         <v>3.978860139846802</v>
       </c>
-      <c r="AA58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>688668</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>1.76</v>
@@ -4416,7 +5442,7 @@
         <v>52020.42</v>
       </c>
       <c r="J59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -4436,8 +5462,23 @@
       <c r="P59">
         <v>-0.13</v>
       </c>
+      <c r="Q59">
+        <v>-0.77</v>
+      </c>
+      <c r="R59">
+        <v>73.73</v>
+      </c>
+      <c r="S59">
+        <v>3.42</v>
+      </c>
       <c r="V59" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -4445,8 +5486,11 @@
       <c r="Z59">
         <v>7.593314647674561</v>
       </c>
-      <c r="AA59" t="s">
-        <v>129</v>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
